--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BNGRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{705DA97D-B6AF-4806-87A6-9973BED2BFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9763F48-B34E-463B-869F-4588EEC6211D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A710062A-1674-48F6-A594-BBEDF4D07A77}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Module</t>
   </si>
@@ -136,6 +136,45 @@
   </si>
   <si>
     <t>Liste des dons</t>
+  </si>
+  <si>
+    <t>base.sql</t>
+  </si>
+  <si>
+    <t>data.sql</t>
+  </si>
+  <si>
+    <t>vue.sql</t>
+  </si>
+  <si>
+    <t>Vue pour les fonctions</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Version 1</t>
+  </si>
+  <si>
+    <t>Version 2</t>
+  </si>
+  <si>
+    <t>listeBesoinVille.php</t>
+  </si>
+  <si>
+    <t>Achat des besoins si il y a l'argent</t>
+  </si>
+  <si>
+    <t>simulation.php</t>
+  </si>
+  <si>
+    <t>Page de simulation des achats des validations</t>
+  </si>
+  <si>
+    <t>recapitulation.php</t>
+  </si>
+  <si>
+    <t>Page de recapitulation des besoins</t>
   </si>
 </sst>
 </file>
@@ -151,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +200,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,11 +222,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3202EAC-5BD7-4C25-9FFF-FEDE4B2E1BB8}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,40 +585,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <f>E2-F2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <f>F2/(F2+G2)%</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -581,35 +607,36 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="0">E3-F3</f>
+        <f>E3-F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H8" si="1">F3/(F3+G3)%</f>
+        <f>F3/(F3+G3)%</f>
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G4">
+        <f t="shared" ref="G4:G9" si="0">E4-F4</f>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H4:H10" si="1">F4/(F4+G4)%</f>
         <v>100</v>
       </c>
     </row>
@@ -617,17 +644,20 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -639,22 +669,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -666,50 +696,46 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -721,55 +747,56 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3">
-        <v>30</v>
-      </c>
-      <c r="G9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <f>F9/(F9+G9)%</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3">
-        <v>10</v>
-      </c>
-      <c r="G10" s="3">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <f>F10/(F10+G10)%</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -778,53 +805,222 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>30</v>
       </c>
       <c r="F11" s="3">
-        <v>55</v>
-      </c>
-      <c r="G11">
+        <v>35</v>
+      </c>
+      <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" ref="H11:H12" si="2">F11/(F11+G11)%</f>
-        <v>99.999999999999986</v>
+        <f>F11/(F11+G11)%</f>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <f>F12/(F12+G12)%</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3">
+        <v>55</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" ref="H13:H20" si="2">F13/(F13+G13)%</f>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <f>E17-F17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>150</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <v>180</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>120</v>
+      </c>
+      <c r="F20">
+        <v>90</v>
+      </c>
+      <c r="G20">
+        <v>60</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BNGRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9763F48-B34E-463B-869F-4588EEC6211D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318E7349-4C9E-4B39-B297-E50F2A5F5770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A710062A-1674-48F6-A594-BBEDF4D07A77}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t>Module</t>
   </si>
@@ -175,6 +175,27 @@
   </si>
   <si>
     <t>Page de recapitulation des besoins</t>
+  </si>
+  <si>
+    <t>Version 3</t>
+  </si>
+  <si>
+    <t>don.php</t>
+  </si>
+  <si>
+    <t>Mode proche des dons</t>
+  </si>
+  <si>
+    <t>Mode des plus petites quantités  des dons</t>
+  </si>
+  <si>
+    <t>Mode proportionnelle des dons</t>
+  </si>
+  <si>
+    <t>Plusieurs villes peuvent avoir le meme besoin</t>
+  </si>
+  <si>
+    <t>Reinitialisation des bases</t>
   </si>
 </sst>
 </file>
@@ -542,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3202EAC-5BD7-4C25-9FFF-FEDE4B2E1BB8}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" ref="H13:H20" si="2">F13/(F13+G13)%</f>
+        <f t="shared" ref="H13:H23" si="2">F13/(F13+G13)%</f>
         <v>99.999999999999986</v>
       </c>
     </row>
@@ -1013,14 +1034,158 @@
         <v>120</v>
       </c>
       <c r="F20">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G20">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
         <v>60</v>
+      </c>
+      <c r="F23">
+        <v>120</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>120</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" ref="H24:H27" si="3">F24/(F24+G24)%</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <v>90</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <v>35</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BNGRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318E7349-4C9E-4B39-B297-E50F2A5F5770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BE4F06-ECAB-421D-B893-0AF053E283A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A710062A-1674-48F6-A594-BBEDF4D07A77}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
   <si>
     <t>Module</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Reinitialisation des bases</t>
+  </si>
+  <si>
+    <t>Déploiement</t>
+  </si>
+  <si>
+    <t>Déploiement sur serveur</t>
   </si>
 </sst>
 </file>
@@ -563,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3202EAC-5BD7-4C25-9FFF-FEDE4B2E1BB8}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" ref="H13:H23" si="2">F13/(F13+G13)%</f>
+        <f t="shared" ref="H13:H25" si="2">F13/(F13+G13)%</f>
         <v>99.999999999999986</v>
       </c>
     </row>
@@ -930,59 +936,53 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H15" s="2"/>
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" ref="H15" si="3">F15/(F15+G15)%</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <f>E17-F17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G18">
+        <f>E18-F18</f>
         <v>0</v>
       </c>
       <c r="H18" s="2">
@@ -995,19 +995,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>60</v>
       </c>
       <c r="F19">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E20">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F20">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1045,92 +1045,86 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="2"/>
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>120</v>
+      </c>
+      <c r="F21">
+        <v>150</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23">
-        <v>60</v>
-      </c>
-      <c r="F23">
-        <v>120</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24">
-        <v>60</v>
-      </c>
-      <c r="F24">
-        <v>120</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" ref="H24:H27" si="3">F24/(F24+G24)%</f>
-        <v>100</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -1142,50 +1136,125 @@
         <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>60</v>
       </c>
       <c r="F26">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H26:H30" si="4">F26/(F26+G26)%</f>
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>1</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>60</v>
+      </c>
+      <c r="F28">
+        <v>90</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>52</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>15</v>
       </c>
-      <c r="E27">
+      <c r="E29">
         <v>30</v>
       </c>
-      <c r="F27">
+      <c r="F29">
         <v>35</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BNGRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BE4F06-ECAB-421D-B893-0AF053E283A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED1D8B1-2B4B-447E-9298-207BBA9E3FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A710062A-1674-48F6-A594-BBEDF4D07A77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{A710062A-1674-48F6-A594-BBEDF4D07A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="87">
   <si>
     <t>Module</t>
   </si>
@@ -202,13 +203,109 @@
   </si>
   <si>
     <t>Déploiement sur serveur</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>ville</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Ordre</t>
+  </si>
+  <si>
+    <t>categorie</t>
+  </si>
+  <si>
+    <t>libelle</t>
+  </si>
+  <si>
+    <t>prix_unitaire</t>
+  </si>
+  <si>
+    <t>quantite</t>
+  </si>
+  <si>
+    <t>Toamasina</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>Riz (kg)</t>
+  </si>
+  <si>
+    <t>Eau (L)</t>
+  </si>
+  <si>
+    <t>materiel</t>
+  </si>
+  <si>
+    <t>Tôle</t>
+  </si>
+  <si>
+    <t>Bâche</t>
+  </si>
+  <si>
+    <t>argent</t>
+  </si>
+  <si>
+    <t>Argent</t>
+  </si>
+  <si>
+    <t>Mananjary</t>
+  </si>
+  <si>
+    <t>Huile (L)</t>
+  </si>
+  <si>
+    <t>Clous (kg)</t>
+  </si>
+  <si>
+    <t>Farafangana</t>
+  </si>
+  <si>
+    <t>Bois</t>
+  </si>
+  <si>
+    <t>Nosy Be</t>
+  </si>
+  <si>
+    <t>Haricots</t>
+  </si>
+  <si>
+    <t>Morondava</t>
+  </si>
+  <si>
+    <t>groupe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,8 +313,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF343535"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444746"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,8 +349,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEDED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -245,16 +376,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC7C7C7"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC7C7C7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3202EAC-5BD7-4C25-9FFF-FEDE4B2E1BB8}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,14 +1096,14 @@
         <v>10</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1260,4 +1431,746 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BB13FE-05E5-4F96-B82A-90B7A0BD154D}">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="9">
+        <v>46069</v>
+      </c>
+      <c r="D3" s="10">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="10">
+        <v>3000</v>
+      </c>
+      <c r="H3" s="10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="9">
+        <v>46068</v>
+      </c>
+      <c r="D4" s="10">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="9">
+        <v>46069</v>
+      </c>
+      <c r="D5" s="10">
+        <v>23</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="10">
+        <v>25000</v>
+      </c>
+      <c r="H5" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="9">
+        <v>46068</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="10">
+        <v>15000</v>
+      </c>
+      <c r="H6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="9">
+        <v>46069</v>
+      </c>
+      <c r="D7" s="10">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="9">
+        <v>46068</v>
+      </c>
+      <c r="D8" s="10">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="10">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="9">
+        <v>46069</v>
+      </c>
+      <c r="D9" s="10">
+        <v>25</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="10">
+        <v>6000</v>
+      </c>
+      <c r="H9" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="9">
+        <v>46068</v>
+      </c>
+      <c r="D10" s="10">
+        <v>6</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="10">
+        <v>25000</v>
+      </c>
+      <c r="H10" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="9">
+        <v>46069</v>
+      </c>
+      <c r="D11" s="10">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="10">
+        <v>8000</v>
+      </c>
+      <c r="H11" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="9">
+        <v>46068</v>
+      </c>
+      <c r="D12" s="10">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="9">
+        <v>46069</v>
+      </c>
+      <c r="D13" s="10">
+        <v>21</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="10">
+        <v>3000</v>
+      </c>
+      <c r="H13" s="10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="9">
+        <v>46068</v>
+      </c>
+      <c r="D14" s="10">
+        <v>14</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="9">
+        <v>46069</v>
+      </c>
+      <c r="D15" s="10">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="10">
+        <v>15000</v>
+      </c>
+      <c r="H15" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="9">
+        <v>46068</v>
+      </c>
+      <c r="D16" s="10">
+        <v>26</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="10">
+        <v>10000</v>
+      </c>
+      <c r="H16" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="9">
+        <v>46069</v>
+      </c>
+      <c r="D17" s="10">
+        <v>10</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="9">
+        <v>46068</v>
+      </c>
+      <c r="D18" s="10">
+        <v>5</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="10">
+        <v>3000</v>
+      </c>
+      <c r="H18" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="9">
+        <v>46069</v>
+      </c>
+      <c r="D19" s="10">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="10">
+        <v>4000</v>
+      </c>
+      <c r="H19" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="9">
+        <v>46068</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="10">
+        <v>25000</v>
+      </c>
+      <c r="H20" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="9">
+        <v>46069</v>
+      </c>
+      <c r="D21" s="10">
+        <v>24</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="10">
+        <v>8000</v>
+      </c>
+      <c r="H21" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="9">
+        <v>46068</v>
+      </c>
+      <c r="D22" s="10">
+        <v>7</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1</v>
+      </c>
+      <c r="H22" s="10">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="9">
+        <v>46069</v>
+      </c>
+      <c r="D23" s="10">
+        <v>11</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="10">
+        <v>3000</v>
+      </c>
+      <c r="H23" s="10">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="9">
+        <v>46068</v>
+      </c>
+      <c r="D24" s="10">
+        <v>20</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="9">
+        <v>46069</v>
+      </c>
+      <c r="D25" s="10">
+        <v>15</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="10">
+        <v>15000</v>
+      </c>
+      <c r="H25" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="9">
+        <v>46068</v>
+      </c>
+      <c r="D26" s="10">
+        <v>22</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="10">
+        <v>10000</v>
+      </c>
+      <c r="H26" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="9">
+        <v>46069</v>
+      </c>
+      <c r="D27" s="10">
+        <v>13</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="9">
+        <v>46068</v>
+      </c>
+      <c r="D28" s="10">
+        <v>16</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="10">
+        <v>6750000</v>
+      </c>
+      <c r="H28" s="10">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BNGRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED1D8B1-2B4B-447E-9298-207BBA9E3FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F33F6C-A5B6-4680-B71B-D4A211AF7BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{A710062A-1674-48F6-A594-BBEDF4D07A77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A710062A-1674-48F6-A594-BBEDF4D07A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="86">
   <si>
     <t>Module</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Modele et controller (Besoins)</t>
   </si>
   <si>
-    <t>formDon.php</t>
-  </si>
-  <si>
     <t>Front et Back</t>
   </si>
   <si>
@@ -205,27 +202,6 @@
     <t>Déploiement sur serveur</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>ville</t>
   </si>
   <si>
@@ -299,24 +275,40 @@
   </si>
   <si>
     <t>groupe</t>
+  </si>
+  <si>
+    <t>Données</t>
+  </si>
+  <si>
+    <t>ReinitModel.php</t>
+  </si>
+  <si>
+    <t>Insertion de données via reinitialisation</t>
+  </si>
+  <si>
+    <t>donForm.php</t>
+  </si>
+  <si>
+    <t>toutes les pages</t>
+  </si>
+  <si>
+    <t>Verification</t>
+  </si>
+  <si>
+    <t>Verification de toutes les pages pour leurs fonctionnements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF343535"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <sz val="9"/>
@@ -330,7 +322,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,12 +338,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFEDED"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -411,19 +397,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -740,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3202EAC-5BD7-4C25-9FFF-FEDE4B2E1BB8}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +768,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -843,7 +826,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -870,7 +853,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -897,19 +880,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1003,10 +986,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1030,10 +1013,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1057,10 +1040,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1081,13 +1064,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -1108,10 +1091,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
         <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -1132,7 +1115,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -1166,10 +1149,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
         <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1193,10 +1176,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -1220,10 +1203,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
         <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -1244,10 +1227,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
         <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -1268,7 +1251,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -1277,10 +1260,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
         <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -1304,10 +1287,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -1322,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" ref="H26:H30" si="4">F26/(F26+G26)%</f>
+        <f t="shared" ref="H26:H29" si="4">F26/(F26+G26)%</f>
         <v>100</v>
       </c>
     </row>
@@ -1331,10 +1314,10 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -1358,10 +1341,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1385,10 +1368,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -1409,23 +1392,74 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <f>F30/(F30+G30)%</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
         <v>53</v>
       </c>
-      <c r="C30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30">
-        <v>10</v>
-      </c>
-      <c r="F30">
-        <v>5</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" si="4"/>
-        <v>50</v>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <f>F31/(F31+G31)%</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <f>F32/(F32+G32)%</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1437,14 +1471,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BB13FE-05E5-4F96-B82A-90B7A0BD154D}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="B1" s="6" t="s">
         <v>55</v>
       </c>
@@ -1463,711 +1499,608 @@
       <c r="G1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="B2" s="8">
+        <v>46069</v>
+      </c>
+      <c r="C2" s="9">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G2" s="9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="8">
+        <v>46068</v>
+      </c>
+      <c r="C3" s="9">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="8">
+        <v>46069</v>
+      </c>
+      <c r="C4" s="9">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="9">
+        <v>25000</v>
+      </c>
+      <c r="G4" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="8">
+        <v>46068</v>
+      </c>
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="9">
+        <v>15000</v>
+      </c>
+      <c r="G5" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="8">
+        <v>46069</v>
+      </c>
+      <c r="C6" s="9">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="8">
+        <v>46068</v>
+      </c>
+      <c r="C7" s="9">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F7" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G7" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="8">
+        <v>46069</v>
+      </c>
+      <c r="C8" s="9">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="9">
+        <v>6000</v>
+      </c>
+      <c r="G8" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="8">
+        <v>46068</v>
+      </c>
+      <c r="C9" s="9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="9">
+        <v>25000</v>
+      </c>
+      <c r="G9" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="8">
+        <v>46069</v>
+      </c>
+      <c r="C10" s="9">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="9">
+        <v>8000</v>
+      </c>
+      <c r="G10" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="8">
+        <v>46068</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="8">
+        <v>46069</v>
+      </c>
+      <c r="C12" s="9">
+        <v>21</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G12" s="9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="8">
+        <v>46068</v>
+      </c>
+      <c r="C13" s="9">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F13" s="9">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="8">
+        <v>46069</v>
+      </c>
+      <c r="C14" s="9">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="9">
+        <v>15000</v>
+      </c>
+      <c r="G14" s="9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="8">
+        <v>46068</v>
+      </c>
+      <c r="C15" s="9">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G15" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="8">
+        <v>46069</v>
+      </c>
+      <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="8">
+        <v>46068</v>
+      </c>
+      <c r="C17" s="9">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G17" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="8">
+        <v>46069</v>
+      </c>
+      <c r="C18" s="9">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="9">
+        <v>4000</v>
+      </c>
+      <c r="G18" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="8">
+        <v>46068</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="F19" s="9">
+        <v>25000</v>
+      </c>
+      <c r="G19" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="8">
+        <v>46069</v>
+      </c>
+      <c r="C20" s="9">
+        <v>24</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="9">
+        <v>8000</v>
+      </c>
+      <c r="G20" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="8">
+        <v>46068</v>
+      </c>
+      <c r="C21" s="9">
+        <v>7</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="8">
+        <v>46069</v>
+      </c>
+      <c r="C22" s="9">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G22" s="9">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="8">
+        <v>46068</v>
+      </c>
+      <c r="C23" s="9">
+        <v>20</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="8">
+        <v>46069</v>
+      </c>
+      <c r="C24" s="9">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="F24" s="9">
+        <v>15000</v>
+      </c>
+      <c r="G24" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="8">
+        <v>46068</v>
+      </c>
+      <c r="C25" s="9">
+        <v>22</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G25" s="9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="8">
+        <v>46069</v>
+      </c>
+      <c r="C26" s="9">
+        <v>13</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="9">
-        <v>46069</v>
-      </c>
-      <c r="D3" s="10">
-        <v>17</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="10">
-        <v>3000</v>
-      </c>
-      <c r="H3" s="10">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="8">
+        <v>46068</v>
+      </c>
+      <c r="C27" s="9">
+        <v>16</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="9">
+        <v>6750000</v>
+      </c>
+      <c r="G27" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="9">
-        <v>46068</v>
-      </c>
-      <c r="D4" s="10">
-        <v>4</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H4" s="10">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="9">
-        <v>46069</v>
-      </c>
-      <c r="D5" s="10">
-        <v>23</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="10">
-        <v>25000</v>
-      </c>
-      <c r="H5" s="10">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="9">
-        <v>46068</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="10">
-        <v>15000</v>
-      </c>
-      <c r="H6" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="9">
-        <v>46069</v>
-      </c>
-      <c r="D7" s="10">
-        <v>12</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10">
-        <v>12000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="9">
-        <v>46068</v>
-      </c>
-      <c r="D8" s="10">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="10">
-        <v>3000</v>
-      </c>
-      <c r="H8" s="10">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="9">
-        <v>46069</v>
-      </c>
-      <c r="D9" s="10">
-        <v>25</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="10">
-        <v>6000</v>
-      </c>
-      <c r="H9" s="10">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="9">
-        <v>46068</v>
-      </c>
-      <c r="D10" s="10">
-        <v>6</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="10">
-        <v>25000</v>
-      </c>
-      <c r="H10" s="10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="9">
-        <v>46069</v>
-      </c>
-      <c r="D11" s="10">
-        <v>19</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="10">
-        <v>8000</v>
-      </c>
-      <c r="H11" s="10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="9">
-        <v>46068</v>
-      </c>
-      <c r="D12" s="10">
-        <v>3</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="9">
-        <v>46069</v>
-      </c>
-      <c r="D13" s="10">
-        <v>21</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="10">
-        <v>3000</v>
-      </c>
-      <c r="H13" s="10">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="9">
-        <v>46068</v>
-      </c>
-      <c r="D14" s="10">
-        <v>14</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="9">
-        <v>46069</v>
-      </c>
-      <c r="D15" s="10">
-        <v>8</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="10">
-        <v>15000</v>
-      </c>
-      <c r="H15" s="10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="9">
-        <v>46068</v>
-      </c>
-      <c r="D16" s="10">
-        <v>26</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="10">
-        <v>10000</v>
-      </c>
-      <c r="H16" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="9">
-        <v>46069</v>
-      </c>
-      <c r="D17" s="10">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="9">
-        <v>46068</v>
-      </c>
-      <c r="D18" s="10">
-        <v>5</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="10">
-        <v>3000</v>
-      </c>
-      <c r="H18" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="9">
-        <v>46069</v>
-      </c>
-      <c r="D19" s="10">
-        <v>18</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="10">
-        <v>4000</v>
-      </c>
-      <c r="H19" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="9">
-        <v>46068</v>
-      </c>
-      <c r="D20" s="10">
-        <v>2</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="10">
-        <v>25000</v>
-      </c>
-      <c r="H20" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="9">
-        <v>46069</v>
-      </c>
-      <c r="D21" s="10">
-        <v>24</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="10">
-        <v>8000</v>
-      </c>
-      <c r="H21" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="9">
-        <v>46068</v>
-      </c>
-      <c r="D22" s="10">
-        <v>7</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1</v>
-      </c>
-      <c r="H22" s="10">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="9">
-        <v>46069</v>
-      </c>
-      <c r="D23" s="10">
-        <v>11</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="10">
-        <v>3000</v>
-      </c>
-      <c r="H23" s="10">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="9">
-        <v>46068</v>
-      </c>
-      <c r="D24" s="10">
-        <v>20</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H24" s="10">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="9">
-        <v>46069</v>
-      </c>
-      <c r="D25" s="10">
-        <v>15</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="10">
-        <v>15000</v>
-      </c>
-      <c r="H25" s="10">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="9">
-        <v>46068</v>
-      </c>
-      <c r="D26" s="10">
-        <v>22</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="10">
-        <v>10000</v>
-      </c>
-      <c r="H26" s="10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="9">
-        <v>46069</v>
-      </c>
-      <c r="D27" s="10">
-        <v>13</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="10">
-        <v>1</v>
-      </c>
-      <c r="H27" s="10">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="9">
-        <v>46068</v>
-      </c>
-      <c r="D28" s="10">
-        <v>16</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="10">
-        <v>6750000</v>
-      </c>
-      <c r="H28" s="10">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
